--- a/Lectures and Assignment 2/problem4.xlsx
+++ b/Lectures and Assignment 2/problem4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB57F64B-D37B-479B-A0D6-546B0DBBDB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20574B9-A50A-49E9-BECA-F6E62004F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="84" windowWidth="11964" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 4" sheetId="23" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -659,18 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,19 +688,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -747,8 +726,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,8 +1697,8 @@
       <xdr:rowOff>11765</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9772650" cy="18799695"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2467,7 +2464,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2480,7 +2477,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2494,7 +2491,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2800,11 +2797,23 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>m</m:t>
+                    <m:t>max</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
                   </m:r>
                   <m:r>
                     <m:rPr>
@@ -2819,33 +2828,6 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>ax</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:sty m:val="p"/>
-                    </m:rPr>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
                     <m:t>z</m:t>
                   </m:r>
                   <m:r>
@@ -2854,7 +2836,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2866,7 +2848,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -2881,7 +2863,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2894,7 +2876,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2906,7 +2888,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2920,7 +2902,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2934,7 +2916,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2948,7 +2930,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2961,7 +2943,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2975,7 +2957,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -2991,7 +2973,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3004,7 +2986,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3018,7 +3000,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3032,7 +3014,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3046,7 +3028,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3059,7 +3041,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3073,7 +3055,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3087,7 +3069,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3103,7 +3085,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3116,7 +3098,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3130,7 +3112,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3144,7 +3126,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3158,7 +3140,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3187,7 +3169,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3212,23 +3194,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>1</m:t>
+                        <m:t>=1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -3252,7 +3222,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3266,7 +3236,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3279,7 +3249,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3293,7 +3263,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3309,7 +3279,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3322,7 +3292,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3336,7 +3306,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3350,7 +3320,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3364,7 +3334,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3377,7 +3347,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3391,7 +3361,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3405,7 +3375,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3421,7 +3391,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3434,7 +3404,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3448,7 +3418,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3462,7 +3432,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3476,7 +3446,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3527,7 +3497,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3540,7 +3510,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3554,7 +3524,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3586,7 +3556,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3599,7 +3569,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3613,7 +3583,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3627,7 +3597,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3659,7 +3629,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3672,7 +3642,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3686,7 +3656,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3718,7 +3688,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3731,7 +3701,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3745,7 +3715,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3759,7 +3729,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3860,7 +3830,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -3896,7 +3865,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3909,7 +3878,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3921,7 +3890,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3935,7 +3904,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3966,7 +3935,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -3993,7 +3962,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4009,7 +3978,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4022,7 +3991,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4036,7 +4005,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4050,7 +4019,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -4064,7 +4033,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4091,7 +4060,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4105,7 +4074,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4121,7 +4090,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4134,7 +4103,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4148,7 +4117,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4162,7 +4131,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -4256,7 +4225,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4269,7 +4238,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4283,7 +4252,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4315,7 +4284,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4328,7 +4297,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4342,7 +4311,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4356,7 +4325,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4386,7 +4355,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -4515,7 +4484,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4528,7 +4497,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4542,7 +4511,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4570,7 +4539,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4583,7 +4552,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4597,7 +4566,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4611,7 +4580,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4625,23 +4594,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>1</m:t>
+                    <m:t>≤1</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -4800,7 +4757,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0">
                   <a:solidFill>
@@ -4822,7 +4778,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4835,540 +4791,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>10</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>11</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑠</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Both stands not damped        0      0       0    (s must be 0 since no stands are damped)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Only </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>10</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is damped                 1      0       0    (s must be 0 since only one stand is damped)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Only </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>1</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>′</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSubSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is damped                 0      1       0    (s must be 0 since only one stand is damped)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Both stands are damped        1      1       1    (s must be 1 since both stands are damped)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>From this table,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> we can conclude that that in all 4 cases, it must be true that     </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≤</m:t>
-                  </m:r>
-                  <m:sSubSup>
-                    <m:sSubSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5396,7 +4819,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5407,16 +4830,101 @@
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>   and  </a:t>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>11</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -5426,7 +4934,345 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑠</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Both stands not damped        0      0       0    (s must be 0 since no stands are damped)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Only </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>10</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is damped                 1      0       0    (s must be 0 since only one stand is damped)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Only </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>11</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> is damped                 0      1       0    (s must be 0 since only one stand is damped)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Both stands are damped        1      1       1    (s must be 1 since both stands are damped)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>From this table,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> we can conclude that that in all 4 cases, it must be true that     </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5438,7 +5284,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5452,7 +5298,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5465,7 +5311,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5479,7 +5325,104 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>10</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>′</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   and  </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑠</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≤</m:t>
+                  </m:r>
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5493,7 +5436,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5507,7 +5450,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5596,7 +5539,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5609,7 +5552,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5623,7 +5566,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5651,7 +5594,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5664,7 +5607,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5678,7 +5621,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5692,7 +5635,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6559,7 +6502,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -10170,9 +10113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80B27E7-C2CB-47E6-945D-970F0F5CFACF}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76:S81"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10209,25 +10150,25 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="11" t="s">
+      <c r="R28" s="34"/>
+      <c r="S28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="11" t="s">
+      <c r="T28" s="34"/>
+      <c r="U28" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="12"/>
+      <c r="V28" s="34"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="16:23" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P29" s="10"/>
+    <row r="29" spans="16:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P29" s="32"/>
       <c r="Q29" s="7" t="s">
         <v>6</v>
       </c>
@@ -10252,22 +10193,22 @@
       <c r="P30" s="5">
         <v>1</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="9">
         <v>17.541713640000008</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="10">
         <v>-39.371286360000006</v>
       </c>
-      <c r="S30" s="15">
+      <c r="S30" s="11">
         <v>25</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T30" s="12">
         <v>4</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="11">
         <v>4975</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30" s="12">
         <v>2488</v>
       </c>
       <c r="W30" s="3"/>
@@ -10276,22 +10217,22 @@
       <c r="P31" s="5">
         <v>2</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="9">
         <v>33.229686399999999</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="10">
         <v>2.7688864000000009</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="11">
         <v>33</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="12">
         <v>1</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="11">
         <v>2807</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="12">
         <v>1404</v>
       </c>
       <c r="W31" s="3"/>
@@ -10300,22 +10241,22 @@
       <c r="P32" s="5">
         <v>3</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="9">
         <v>102.50656098</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="10">
         <v>25.65083598</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="11">
         <v>30</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="12">
         <v>2</v>
       </c>
-      <c r="U32" s="15">
+      <c r="U32" s="11">
         <v>4976</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="12">
         <v>2488</v>
       </c>
       <c r="W32" s="3"/>
@@ -10324,22 +10265,22 @@
       <c r="P33" s="5">
         <v>4</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="9">
         <v>86.606040000000007</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="10">
         <v>7.2164400000000004</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="11">
         <v>29</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="12">
         <v>2</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="11">
         <v>7367</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V33" s="12">
         <v>3683</v>
       </c>
       <c r="W33" s="3"/>
@@ -10348,22 +10289,22 @@
       <c r="P34" s="5">
         <v>5</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="9">
         <v>27.94822151999999</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="10">
         <v>-62.728278480000007</v>
       </c>
-      <c r="S34" s="15">
+      <c r="S34" s="11">
         <v>24</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="12">
         <v>-1</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U34" s="11">
         <v>7926</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="12">
         <v>3963</v>
       </c>
       <c r="W34" s="3"/>
@@ -10372,22 +10313,22 @@
       <c r="P35" s="5">
         <v>6</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="9">
         <v>31.191460719999998</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="10">
         <v>-70.007539280000003</v>
       </c>
-      <c r="S35" s="15">
+      <c r="S35" s="11">
         <v>19</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="12">
         <v>0</v>
       </c>
-      <c r="U35" s="15">
+      <c r="U35" s="11">
         <v>8848</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="12">
         <v>4424</v>
       </c>
       <c r="W35" s="3"/>
@@ -10396,22 +10337,22 @@
       <c r="P36" s="5">
         <v>7</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="9">
         <v>11.026973520000004</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="10">
         <v>-24.74952648</v>
       </c>
-      <c r="S36" s="15">
+      <c r="S36" s="11">
         <v>24</v>
       </c>
-      <c r="T36" s="16">
+      <c r="T36" s="12">
         <v>-1</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="11">
         <v>3128</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="12">
         <v>1564</v>
       </c>
       <c r="W36" s="3"/>
@@ -10420,22 +10361,22 @@
       <c r="P37" s="5">
         <v>8</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="9">
         <v>15.90601288</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="10">
         <v>-35.699987120000003</v>
       </c>
-      <c r="S37" s="15">
+      <c r="S37" s="11">
         <v>27</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T37" s="12">
         <v>-1</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="11">
         <v>5154</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V37" s="12">
         <v>2577</v>
       </c>
       <c r="W37" s="3"/>
@@ -10444,22 +10385,22 @@
       <c r="P38" s="5">
         <v>9</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="9">
         <v>116.7742897</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="10">
         <v>29.221164699999999</v>
       </c>
-      <c r="S38" s="15">
+      <c r="S38" s="11">
         <v>37</v>
       </c>
-      <c r="T38" s="16">
+      <c r="T38" s="12">
         <v>1</v>
       </c>
-      <c r="U38" s="15">
+      <c r="U38" s="11">
         <v>5499</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38" s="12">
         <v>2750</v>
       </c>
       <c r="W38" s="3"/>
@@ -10468,22 +10409,22 @@
       <c r="P39" s="5">
         <v>10</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="9">
         <v>29.922367120000008</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="10">
         <v>-67.159132880000001</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S39" s="11">
         <v>22</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T39" s="12">
         <v>-3</v>
       </c>
-      <c r="U39" s="15">
+      <c r="U39" s="11">
         <v>8642</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39" s="12">
         <v>4321</v>
       </c>
       <c r="W39" s="3"/>
@@ -10492,22 +10433,22 @@
       <c r="P40" s="5">
         <v>11</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="9">
         <v>23.421857260000003</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="10">
         <v>-52.568892739999995</v>
       </c>
-      <c r="S40" s="15">
+      <c r="S40" s="11">
         <v>24</v>
       </c>
-      <c r="T40" s="16">
+      <c r="T40" s="12">
         <v>-1</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="11">
         <v>6643</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="12">
         <v>3321</v>
       </c>
       <c r="W40" s="3"/>
@@ -10516,22 +10457,22 @@
       <c r="P41" s="5">
         <v>12</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="9">
         <v>19.008241679999983</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="10">
         <v>-42.662758320000002</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="11">
         <v>21</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="12">
         <v>-4</v>
       </c>
-      <c r="U41" s="15">
+      <c r="U41" s="11">
         <v>5392</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="12">
         <v>2696</v>
       </c>
       <c r="W41" s="3"/>
@@ -10548,22 +10489,22 @@
       <c r="P42" s="5">
         <v>13</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="9">
         <v>77.850943400000006</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="10">
         <v>6.4869434000000012</v>
       </c>
-      <c r="S42" s="15">
+      <c r="S42" s="11">
         <v>30</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="12">
         <v>1</v>
       </c>
-      <c r="U42" s="15">
+      <c r="U42" s="11">
         <v>6260</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="12">
         <v>3130</v>
       </c>
       <c r="W42" s="3"/>
@@ -10572,22 +10513,22 @@
       <c r="P43" s="5">
         <v>14</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="9">
         <v>18.994110820000014</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="10">
         <v>-42.631139179999998</v>
       </c>
-      <c r="S43" s="15">
+      <c r="S43" s="11">
         <v>27</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T43" s="12">
         <v>-1</v>
       </c>
-      <c r="U43" s="15">
+      <c r="U43" s="11">
         <v>5386</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="12">
         <v>2693</v>
       </c>
       <c r="W43" s="3"/>
@@ -10596,22 +10537,22 @@
       <c r="P44" s="5">
         <v>15</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="9">
         <v>274.22834905999997</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="10">
         <v>68.621774059999993</v>
       </c>
-      <c r="S44" s="15">
+      <c r="S44" s="11">
         <v>22</v>
       </c>
-      <c r="T44" s="16">
+      <c r="T44" s="12">
         <v>3</v>
       </c>
-      <c r="U44" s="15">
+      <c r="U44" s="11">
         <v>12916</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="12">
         <v>6458</v>
       </c>
       <c r="W44" s="3"/>
@@ -10620,22 +10561,22 @@
       <c r="P45" s="5">
         <v>16</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="9">
         <v>11.294962859999996</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="10">
         <v>-25.350787140000001</v>
       </c>
-      <c r="S45" s="15">
+      <c r="S45" s="11">
         <v>23</v>
       </c>
-      <c r="T45" s="16">
+      <c r="T45" s="12">
         <v>0</v>
       </c>
-      <c r="U45" s="15">
+      <c r="U45" s="11">
         <v>3203</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45" s="12">
         <v>1601</v>
       </c>
       <c r="W45" s="3"/>
@@ -10644,22 +10585,22 @@
       <c r="P46" s="5">
         <v>17</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="9">
         <v>7.0363891400000016</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="10">
         <v>-15.792860860000001</v>
       </c>
-      <c r="S46" s="15">
+      <c r="S46" s="11">
         <v>27</v>
       </c>
-      <c r="T46" s="16">
+      <c r="T46" s="12">
         <v>-1</v>
       </c>
-      <c r="U46" s="15">
+      <c r="U46" s="11">
         <v>1997</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="12">
         <v>999</v>
       </c>
       <c r="W46" s="3"/>
@@ -10668,22 +10609,22 @@
       <c r="P47" s="5">
         <v>18</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="9">
         <v>39.575831640000004</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="10">
         <v>9.9032816400000012</v>
       </c>
-      <c r="S47" s="15">
+      <c r="S47" s="11">
         <v>33</v>
       </c>
-      <c r="T47" s="16">
+      <c r="T47" s="12">
         <v>1</v>
       </c>
-      <c r="U47" s="15">
+      <c r="U47" s="11">
         <v>1865</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V47" s="12">
         <v>933</v>
       </c>
       <c r="W47" s="3"/>
@@ -10692,22 +10633,22 @@
       <c r="P48" s="5">
         <v>19</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="9">
         <v>11.802580420000011</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="10">
         <v>-26.490169579999996</v>
       </c>
-      <c r="S48" s="15">
+      <c r="S48" s="11">
         <v>19</v>
       </c>
-      <c r="T48" s="16">
+      <c r="T48" s="12">
         <v>0</v>
       </c>
-      <c r="U48" s="15">
+      <c r="U48" s="11">
         <v>3349</v>
       </c>
-      <c r="V48" s="16">
+      <c r="V48" s="12">
         <v>1675</v>
       </c>
       <c r="W48" s="3"/>
@@ -10716,22 +10657,22 @@
       <c r="P49" s="6">
         <v>20</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="13">
         <v>261.40448392000002</v>
       </c>
-      <c r="R49" s="18">
+      <c r="R49" s="14">
         <v>65.412833919999997</v>
       </c>
-      <c r="S49" s="19">
+      <c r="S49" s="15">
         <v>27</v>
       </c>
-      <c r="T49" s="20">
+      <c r="T49" s="16">
         <v>2</v>
       </c>
-      <c r="U49" s="19">
+      <c r="U49" s="15">
         <v>12312</v>
       </c>
-      <c r="V49" s="20">
+      <c r="V49" s="16">
         <v>6156</v>
       </c>
       <c r="W49" s="3"/>
@@ -10757,20 +10698,20 @@
       <c r="W51" s="3"/>
     </row>
     <row r="53" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P53" s="21" t="s">
+      <c r="P53" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
     <row r="54" spans="16:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="P54" s="21"/>
-      <c r="Q54" s="23" t="s">
+      <c r="P54" s="35"/>
+      <c r="Q54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R54" s="23" t="s">
+      <c r="R54" s="18" t="s">
         <v>13</v>
       </c>
       <c r="S54" s="3" t="s">
@@ -10779,22 +10720,22 @@
       <c r="T54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="25" t="s">
+      <c r="U54" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="V54" s="25"/>
+      <c r="V54" s="37"/>
     </row>
     <row r="55" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P55" s="24">
+      <c r="P55" s="19">
         <v>1</v>
       </c>
-      <c r="Q55" s="31">
+      <c r="Q55" s="24">
         <v>0</v>
       </c>
-      <c r="R55" s="31">
+      <c r="R55" s="24">
         <v>1</v>
       </c>
-      <c r="S55" s="33">
+      <c r="S55" s="26">
         <f>SUM(Q55:R55)</f>
         <v>1</v>
       </c>
@@ -10806,16 +10747,16 @@
       </c>
     </row>
     <row r="56" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P56" s="24">
+      <c r="P56" s="19">
         <v>2</v>
       </c>
-      <c r="Q56" s="31">
+      <c r="Q56" s="24">
         <v>1</v>
       </c>
-      <c r="R56" s="31">
+      <c r="R56" s="24">
         <v>0</v>
       </c>
-      <c r="S56" s="33">
+      <c r="S56" s="26">
         <f t="shared" ref="S56:S74" si="0">SUM(Q56:R56)</f>
         <v>1</v>
       </c>
@@ -10827,16 +10768,16 @@
       </c>
     </row>
     <row r="57" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P57" s="24">
+      <c r="P57" s="19">
         <v>3</v>
       </c>
-      <c r="Q57" s="31">
+      <c r="Q57" s="24">
         <v>0</v>
       </c>
-      <c r="R57" s="31">
+      <c r="R57" s="24">
         <v>0</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10848,16 +10789,16 @@
       </c>
     </row>
     <row r="58" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P58" s="24">
+      <c r="P58" s="19">
         <v>4</v>
       </c>
-      <c r="Q58" s="31">
+      <c r="Q58" s="24">
         <v>0</v>
       </c>
-      <c r="R58" s="31">
+      <c r="R58" s="24">
         <v>0</v>
       </c>
-      <c r="S58" s="33">
+      <c r="S58" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10869,16 +10810,16 @@
       </c>
     </row>
     <row r="59" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P59" s="24">
+      <c r="P59" s="19">
         <v>5</v>
       </c>
-      <c r="Q59" s="31">
+      <c r="Q59" s="24">
         <v>0</v>
       </c>
-      <c r="R59" s="31">
+      <c r="R59" s="24">
         <v>1</v>
       </c>
-      <c r="S59" s="33">
+      <c r="S59" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10890,16 +10831,16 @@
       </c>
     </row>
     <row r="60" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P60" s="24">
+      <c r="P60" s="19">
         <v>6</v>
       </c>
-      <c r="Q60" s="31">
+      <c r="Q60" s="24">
         <v>0</v>
       </c>
-      <c r="R60" s="31">
+      <c r="R60" s="24">
         <v>1</v>
       </c>
-      <c r="S60" s="33">
+      <c r="S60" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10911,16 +10852,16 @@
       </c>
     </row>
     <row r="61" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P61" s="24">
+      <c r="P61" s="19">
         <v>7</v>
       </c>
-      <c r="Q61" s="31">
+      <c r="Q61" s="24">
         <v>1</v>
       </c>
-      <c r="R61" s="31">
+      <c r="R61" s="24">
         <v>0</v>
       </c>
-      <c r="S61" s="33">
+      <c r="S61" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10932,16 +10873,16 @@
       </c>
     </row>
     <row r="62" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P62" s="24">
+      <c r="P62" s="19">
         <v>8</v>
       </c>
-      <c r="Q62" s="31">
+      <c r="Q62" s="24">
         <v>0</v>
       </c>
-      <c r="R62" s="31">
+      <c r="R62" s="24">
         <v>1</v>
       </c>
-      <c r="S62" s="33">
+      <c r="S62" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10953,16 +10894,16 @@
       </c>
     </row>
     <row r="63" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P63" s="24">
+      <c r="P63" s="19">
         <v>9</v>
       </c>
-      <c r="Q63" s="31">
+      <c r="Q63" s="24">
         <v>0</v>
       </c>
-      <c r="R63" s="31">
+      <c r="R63" s="24">
         <v>0</v>
       </c>
-      <c r="S63" s="33">
+      <c r="S63" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10974,16 +10915,16 @@
       </c>
     </row>
     <row r="64" spans="16:23" x14ac:dyDescent="0.3">
-      <c r="P64" s="24">
+      <c r="P64" s="19">
         <v>10</v>
       </c>
-      <c r="Q64" s="31">
+      <c r="Q64" s="24">
         <v>0</v>
       </c>
-      <c r="R64" s="31">
+      <c r="R64" s="24">
         <v>1</v>
       </c>
-      <c r="S64" s="33">
+      <c r="S64" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10995,16 +10936,16 @@
       </c>
     </row>
     <row r="65" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P65" s="24">
+      <c r="P65" s="19">
         <v>11</v>
       </c>
-      <c r="Q65" s="31">
+      <c r="Q65" s="24">
         <v>0</v>
       </c>
-      <c r="R65" s="31">
+      <c r="R65" s="24">
         <v>1</v>
       </c>
-      <c r="S65" s="33">
+      <c r="S65" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11016,16 +10957,16 @@
       </c>
     </row>
     <row r="66" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P66" s="24">
+      <c r="P66" s="19">
         <v>12</v>
       </c>
-      <c r="Q66" s="31">
+      <c r="Q66" s="24">
         <v>0</v>
       </c>
-      <c r="R66" s="31">
+      <c r="R66" s="24">
         <v>1</v>
       </c>
-      <c r="S66" s="33">
+      <c r="S66" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11037,16 +10978,16 @@
       </c>
     </row>
     <row r="67" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P67" s="24">
+      <c r="P67" s="19">
         <v>13</v>
       </c>
-      <c r="Q67" s="31">
+      <c r="Q67" s="24">
         <v>0</v>
       </c>
-      <c r="R67" s="31">
+      <c r="R67" s="24">
         <v>0</v>
       </c>
-      <c r="S67" s="33">
+      <c r="S67" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11058,16 +10999,16 @@
       </c>
     </row>
     <row r="68" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P68" s="24">
+      <c r="P68" s="19">
         <v>14</v>
       </c>
-      <c r="Q68" s="31">
+      <c r="Q68" s="24">
         <v>0</v>
       </c>
-      <c r="R68" s="31">
+      <c r="R68" s="24">
         <v>1</v>
       </c>
-      <c r="S68" s="33">
+      <c r="S68" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11079,16 +11020,16 @@
       </c>
     </row>
     <row r="69" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P69" s="24">
+      <c r="P69" s="19">
         <v>15</v>
       </c>
-      <c r="Q69" s="31">
+      <c r="Q69" s="24">
         <v>0</v>
       </c>
-      <c r="R69" s="31">
+      <c r="R69" s="24">
         <v>0</v>
       </c>
-      <c r="S69" s="33">
+      <c r="S69" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11100,16 +11041,16 @@
       </c>
     </row>
     <row r="70" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P70" s="24">
+      <c r="P70" s="19">
         <v>16</v>
       </c>
-      <c r="Q70" s="31">
+      <c r="Q70" s="24">
         <v>1</v>
       </c>
-      <c r="R70" s="31">
+      <c r="R70" s="24">
         <v>0</v>
       </c>
-      <c r="S70" s="33">
+      <c r="S70" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11121,16 +11062,16 @@
       </c>
     </row>
     <row r="71" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P71" s="24">
+      <c r="P71" s="19">
         <v>17</v>
       </c>
-      <c r="Q71" s="31">
+      <c r="Q71" s="24">
         <v>1</v>
       </c>
-      <c r="R71" s="31">
+      <c r="R71" s="24">
         <v>0</v>
       </c>
-      <c r="S71" s="33">
+      <c r="S71" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11142,16 +11083,16 @@
       </c>
     </row>
     <row r="72" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P72" s="24">
+      <c r="P72" s="19">
         <v>18</v>
       </c>
-      <c r="Q72" s="31">
+      <c r="Q72" s="24">
         <v>1</v>
       </c>
-      <c r="R72" s="31">
+      <c r="R72" s="24">
         <v>0</v>
       </c>
-      <c r="S72" s="33">
+      <c r="S72" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11163,16 +11104,16 @@
       </c>
     </row>
     <row r="73" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P73" s="24">
+      <c r="P73" s="19">
         <v>19</v>
       </c>
-      <c r="Q73" s="31">
+      <c r="Q73" s="24">
         <v>1</v>
       </c>
-      <c r="R73" s="31">
+      <c r="R73" s="24">
         <v>0</v>
       </c>
-      <c r="S73" s="33">
+      <c r="S73" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11184,16 +11125,16 @@
       </c>
     </row>
     <row r="74" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P74" s="24">
+      <c r="P74" s="19">
         <v>20</v>
       </c>
-      <c r="Q74" s="31">
+      <c r="Q74" s="24">
         <v>0</v>
       </c>
-      <c r="R74" s="31">
+      <c r="R74" s="24">
         <v>0</v>
       </c>
-      <c r="S74" s="33">
+      <c r="S74" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11205,44 +11146,44 @@
       </c>
     </row>
     <row r="75" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P75" s="28" t="s">
+      <c r="P75" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q75" s="32">
+      <c r="Q75" s="25">
         <v>1</v>
       </c>
-      <c r="R75" s="30" t="s">
+      <c r="R75" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="S75" s="30"/>
+      <c r="S75" s="23"/>
     </row>
     <row r="76" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="P76" s="34" t="s">
+      <c r="P76" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q76" s="35" t="s">
+      <c r="Q76" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R76" s="35" t="s">
+      <c r="R76" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S76" s="36" t="s">
+      <c r="S76" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="16:21" x14ac:dyDescent="0.3">
-      <c r="P77" s="34" t="s">
+      <c r="P77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="37">
+      <c r="Q77" s="30">
         <f xml:space="preserve"> SUMPRODUCT(Q55:Q74, U30:U49)</f>
         <v>16349</v>
       </c>
-      <c r="R77" s="37">
+      <c r="R77" s="30">
         <f xml:space="preserve"> SUMPRODUCT(R55:R74, V30:V49)</f>
         <v>26483</v>
       </c>
-      <c r="S77" s="38">
+      <c r="S77" s="30">
         <f>SUM(Q77:R77) - 3000 * Q75</f>
         <v>39832</v>
       </c>
@@ -11254,70 +11195,70 @@
       </c>
     </row>
     <row r="78" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="P78" s="34"/>
-      <c r="Q78" s="35" t="s">
+      <c r="P78" s="27"/>
+      <c r="Q78" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R78" s="35" t="s">
+      <c r="R78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S78" s="34" t="s">
+      <c r="S78" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="16:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P79" s="26" t="s">
+      <c r="P79" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q79" s="37">
+      <c r="Q79" s="30">
         <f xml:space="preserve"> SUMPRODUCT(Q55:Q74,Q30:Q49)</f>
         <v>113.96642398000002</v>
       </c>
-      <c r="R79" s="37">
+      <c r="R79" s="30">
         <f xml:space="preserve"> SUMPRODUCT(R55:R74,R30:R49)</f>
         <v>-412.82901436000003</v>
       </c>
-      <c r="S79" s="38">
+      <c r="S79" s="30">
         <f>SUM(Q79:R79)</f>
         <v>-298.86259038000003</v>
       </c>
     </row>
     <row r="80" spans="16:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="P80" s="34"/>
-      <c r="Q80" s="35" t="s">
+      <c r="P80" s="27"/>
+      <c r="Q80" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R80" s="35" t="s">
+      <c r="R80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="S80" s="34" t="s">
+      <c r="S80" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="16:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="P81" s="26" t="s">
+      <c r="P81" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q81" s="37">
+      <c r="Q81" s="30">
         <f>SUMPRODUCT(Q55:Q74, S30:S49)</f>
         <v>159</v>
       </c>
-      <c r="R81" s="37">
+      <c r="R81" s="30">
         <f>SUMPRODUCT(R55:R74, T30:T49)</f>
         <v>-7</v>
       </c>
-      <c r="S81" s="38">
+      <c r="S81" s="30">
         <f>SUM(Q81:R81)</f>
         <v>152</v>
       </c>
     </row>
     <row r="82" spans="16:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S82" s="27" t="s">
+      <c r="S82" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="S83" s="29">
+      <c r="S83" s="22">
         <f xml:space="preserve"> 2.1 * S81 - S79</f>
         <v>618.06259038000007</v>
       </c>
